--- a/sampleTable.xlsx
+++ b/sampleTable.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="66">
   <si>
     <t>SP8</t>
   </si>
@@ -360,8 +360,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -509,7 +511,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -550,6 +552,7 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -590,6 +593,7 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -860,7 +864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -870,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2588,7 +2592,9 @@
       <c r="L40" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="17"/>
+      <c r="M40" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="N40" s="10">
         <v>1</v>
       </c>
